--- a/biology/Botanique/Côtes_de_Sambre_et_Meuse/Côtes_de_Sambre_et_Meuse.xlsx
+++ b/biology/Botanique/Côtes_de_Sambre_et_Meuse/Côtes_de_Sambre_et_Meuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes_de_Sambre_et_Meuse</t>
+          <t>Côtes_de_Sambre_et_Meuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les vins des Côtes de Sambre et Meuse sont des vins de la Région wallonne en Belgique. Leur qualité est reconnue comme appellation d’origine contrôlée[1]. Une soixantaine de propriétaires et 27 vignobles recensés par la fédération belge des vins et spiritueux totalisent une trentaine d'hectares de vignes. Cela représente entre 75 et 80 000 pieds pour une production annuelle de 800 à 900 hectolitres[2]. 
-Le nom de vin de pays des Jardins de Wallonie est donné aux autres vins du terroir wallon[2].
+Les vins des Côtes de Sambre et Meuse sont des vins de la Région wallonne en Belgique. Leur qualité est reconnue comme appellation d’origine contrôlée. Une soixantaine de propriétaires et 27 vignobles recensés par la fédération belge des vins et spiritueux totalisent une trentaine d'hectares de vignes. Cela représente entre 75 et 80 000 pieds pour une production annuelle de 800 à 900 hectolitres. 
+Le nom de vin de pays des Jardins de Wallonie est donné aux autres vins du terroir wallon.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes_de_Sambre_et_Meuse</t>
+          <t>Côtes_de_Sambre_et_Meuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de production vinicole et viticole apte à recevoir l'appellation Côtes de Sambre et Meuse correspond au bassin hydrographique de la Meuse constitué de huit sous-bassins : Meuse amont, Meuse aval, Sambre, Ourthe, Amblève, Semois, Chiers, Vesdre et Lesse. 
-L'arrêté ministériel du 27 mai 2004 portant agrément des Côtes de Sambre et Meuse comme vin de qualité d'appellation d'origine contrôlée (A.O.C.) a été publié au Moniteur belge du 4 novembre 2004[3].  
+L'arrêté ministériel du 27 mai 2004 portant agrément des Côtes de Sambre et Meuse comme vin de qualité d'appellation d'origine contrôlée (A.O.C.) a été publié au Moniteur belge du 4 novembre 2004.  
 Le rendement moyen maximal à l'hectare est limité à 65 hectolitres.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes_de_Sambre_et_Meuse</t>
+          <t>Côtes_de_Sambre_et_Meuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Province de Hainaut
-Vignoble de la Mazelle à Beaumont
+          <t>Province de Hainaut</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vignoble de la Mazelle à Beaumont
 Clos des Zouaves à Thuin
-Vignoble d'Herlaimont, Château de Trazegnies à Trazegnies (Courcelles)
-Province de Namur
-Domaine viticole Li Betch aus Rotches à Jemeppe-sur-Sambre
+Vignoble d'Herlaimont, Château de Trazegnies à Trazegnies (Courcelles)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Côtes_de_Sambre_et_Meuse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes_de_Sambre_et_Meuse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des vignobles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Province de Namur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Domaine viticole Li Betch aus Rotches à Jemeppe-sur-Sambre
 Vignoble La Croix de Pierre à Floreffe
 Domaine du Chenoy à Émines (La Bruyère) d'une superficie de 10 ha
 Domaine du Ry d'Argent à Bovesse (La Bruyère)
@@ -562,9 +615,43 @@
 Clos de Vigneroule à Jambes (Namur)
 Commanderie des Coteaux de Meuse à Wépion (Namur)
 Clos du Neuf Moulin à Seilles (Andenne)
-Château de Bioul à Bioul d'une superficie de 10 ha
-Province de Liège
-Clos de Temme à Ouffet
+Château de Bioul à Bioul d'une superficie de 10 ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes_de_Sambre_et_Meuse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes_de_Sambre_et_Meuse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des vignobles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Province de Liège</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clos de Temme à Ouffet
 Clos des Grandes Ruelles à Marneffe (Burdinne)
 Domaine Pierre Rosoux à Warnant (Villers-le-Bouillet)
 Clos des Trémières à Borlez (Faimes)
@@ -583,33 +670,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%B4tes_de_Sambre_et_Meuse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côtes_de_Sambre_et_Meuse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%B4tes_de_Sambre_et_Meuse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par ce même arrêté, les 24 cépages suivants sont les seuls admis pour l'élaboration des vins des Côtes de Sambre et Meuse. Il s'agit de l'Auxerrois, du Pinot noir, du Pinot noir précoce, du Müller-Thurgau, du Pinot gris, du Rivaner, du Sieger, du Chardonnay, du Pinot blanc, du Muscat, du Merlot, du Gamay, du Riesling, du Bronner, du Merzling, du Johanniter, du Regent, du Traminer, du Gewürztraminer, du Chenin, de l'Ortega, du Chasselas, de la Madeleine Angevine et du Seibel[4][source insuffisante].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par ce même arrêté, les 24 cépages suivants sont les seuls admis pour l'élaboration des vins des Côtes de Sambre et Meuse. Il s'agit de l'Auxerrois, du Pinot noir, du Pinot noir précoce, du Müller-Thurgau, du Pinot gris, du Rivaner, du Sieger, du Chardonnay, du Pinot blanc, du Muscat, du Merlot, du Gamay, du Riesling, du Bronner, du Merzling, du Johanniter, du Regent, du Traminer, du Gewürztraminer, du Chenin, de l'Ortega, du Chasselas, de la Madeleine Angevine et du Seibel[source insuffisante].
 Le Divico, le Divona et le Satin noir sont ajoutés à cette liste initiale[réf. nécessaire].
 </t>
         </is>
